--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2652,28 +2652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>610.4680656354562</v>
+        <v>705.2645191851824</v>
       </c>
       <c r="AB2" t="n">
-        <v>835.2693393527262</v>
+        <v>964.9740292238326</v>
       </c>
       <c r="AC2" t="n">
-        <v>755.5524059127819</v>
+        <v>872.8782622242657</v>
       </c>
       <c r="AD2" t="n">
-        <v>610468.0656354562</v>
+        <v>705264.5191851824</v>
       </c>
       <c r="AE2" t="n">
-        <v>835269.3393527262</v>
+        <v>964974.0292238327</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.433647116735206e-06</v>
+        <v>2.066838030744403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>755552.4059127818</v>
+        <v>872878.2622242656</v>
       </c>
     </row>
     <row r="3">
@@ -2758,28 +2758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>379.4379889282611</v>
+        <v>448.3343390915368</v>
       </c>
       <c r="AB3" t="n">
-        <v>519.163796074296</v>
+        <v>613.4308218601424</v>
       </c>
       <c r="AC3" t="n">
-        <v>469.6155320279286</v>
+        <v>554.8858451773754</v>
       </c>
       <c r="AD3" t="n">
-        <v>379437.988928261</v>
+        <v>448334.3390915368</v>
       </c>
       <c r="AE3" t="n">
-        <v>519163.7960742959</v>
+        <v>613430.8218601424</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.992652901427474e-06</v>
+        <v>2.872736777877653e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.25462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>469615.5320279286</v>
+        <v>554885.8451773754</v>
       </c>
     </row>
     <row r="4">
@@ -2864,28 +2864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>321.990506804188</v>
+        <v>382.4240813725725</v>
       </c>
       <c r="AB4" t="n">
-        <v>440.5616166280972</v>
+        <v>523.249499493704</v>
       </c>
       <c r="AC4" t="n">
-        <v>398.5150342692233</v>
+        <v>473.311301647309</v>
       </c>
       <c r="AD4" t="n">
-        <v>321990.506804188</v>
+        <v>382424.0813725725</v>
       </c>
       <c r="AE4" t="n">
-        <v>440561.6166280973</v>
+        <v>523249.499493704</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.202673958641338e-06</v>
+        <v>3.175516662299474e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.7962962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>398515.0342692233</v>
+        <v>473311.301647309</v>
       </c>
     </row>
     <row r="5">
@@ -2970,28 +2970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>300.6062629836026</v>
+        <v>352.4065592650546</v>
       </c>
       <c r="AB5" t="n">
-        <v>411.3027508265172</v>
+        <v>482.1782014665856</v>
       </c>
       <c r="AC5" t="n">
-        <v>372.04859355467</v>
+        <v>436.15979065997</v>
       </c>
       <c r="AD5" t="n">
-        <v>300606.2629836026</v>
+        <v>352406.5592650546</v>
       </c>
       <c r="AE5" t="n">
-        <v>411302.7508265172</v>
+        <v>482178.2014665856</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.32225834155606e-06</v>
+        <v>3.347917211643931e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.09027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>372048.59355467</v>
+        <v>436159.79065997</v>
       </c>
     </row>
     <row r="6">
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>277.0918777036463</v>
+        <v>337.4401114174591</v>
       </c>
       <c r="AB6" t="n">
-        <v>379.1293315050171</v>
+        <v>461.7004472484261</v>
       </c>
       <c r="AC6" t="n">
-        <v>342.9457602175362</v>
+        <v>417.6364045636831</v>
       </c>
       <c r="AD6" t="n">
-        <v>277091.8777036463</v>
+        <v>337440.1114174591</v>
       </c>
       <c r="AE6" t="n">
-        <v>379129.3315050171</v>
+        <v>461700.4472484261</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.3963617953517e-06</v>
+        <v>3.454749523951806e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.68518518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>342945.7602175362</v>
+        <v>417636.4045636831</v>
       </c>
     </row>
     <row r="7">
@@ -3182,28 +3182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>265.9742374605503</v>
+        <v>317.6891928874306</v>
       </c>
       <c r="AB7" t="n">
-        <v>363.9176856487418</v>
+        <v>434.6763691666125</v>
       </c>
       <c r="AC7" t="n">
-        <v>329.1858924921048</v>
+        <v>393.191466565466</v>
       </c>
       <c r="AD7" t="n">
-        <v>265974.2374605503</v>
+        <v>317689.1928874307</v>
       </c>
       <c r="AE7" t="n">
-        <v>363917.6856487418</v>
+        <v>434676.3691666125</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.442788055561016e-06</v>
+        <v>3.521680611180835e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.44212962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>329185.8924921048</v>
+        <v>393191.466565466</v>
       </c>
     </row>
     <row r="8">
@@ -3288,28 +3288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>263.5302836474381</v>
+        <v>315.2452390743184</v>
       </c>
       <c r="AB8" t="n">
-        <v>360.5737602220088</v>
+        <v>431.3324437398796</v>
       </c>
       <c r="AC8" t="n">
-        <v>326.1611066148704</v>
+        <v>390.1666806882316</v>
       </c>
       <c r="AD8" t="n">
-        <v>263530.283647438</v>
+        <v>315245.2390743184</v>
       </c>
       <c r="AE8" t="n">
-        <v>360573.7602220088</v>
+        <v>431332.4437398796</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.449878038737778e-06</v>
+        <v>3.531901987624183e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.40740740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>326161.1066148704</v>
+        <v>390166.6806882316</v>
       </c>
     </row>
   </sheetData>
@@ -3585,28 +3585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>466.9484523195913</v>
+        <v>551.0373470150499</v>
       </c>
       <c r="AB2" t="n">
-        <v>638.899472775485</v>
+        <v>753.9536082380251</v>
       </c>
       <c r="AC2" t="n">
-        <v>577.9238037948338</v>
+        <v>681.9973340483224</v>
       </c>
       <c r="AD2" t="n">
-        <v>466948.4523195913</v>
+        <v>551037.3470150499</v>
       </c>
       <c r="AE2" t="n">
-        <v>638899.472775485</v>
+        <v>753953.6082380251</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.695516400285287e-06</v>
+        <v>2.482172226466118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>577923.8037948338</v>
+        <v>681997.3340483224</v>
       </c>
     </row>
     <row r="3">
@@ -3691,28 +3691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>317.49181077068</v>
+        <v>376.3285243096806</v>
       </c>
       <c r="AB3" t="n">
-        <v>434.4063022465897</v>
+        <v>514.9092894032568</v>
       </c>
       <c r="AC3" t="n">
-        <v>392.9471744532489</v>
+        <v>465.7670695023358</v>
       </c>
       <c r="AD3" t="n">
-        <v>317491.81077068</v>
+        <v>376328.5243096806</v>
       </c>
       <c r="AE3" t="n">
-        <v>434406.3022465897</v>
+        <v>514909.2894032568</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.215395804102575e-06</v>
+        <v>3.24325611633584e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.18981481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>392947.1744532489</v>
+        <v>465767.0695023358</v>
       </c>
     </row>
     <row r="4">
@@ -3797,28 +3797,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>278.6812011308083</v>
+        <v>329.1858319693776</v>
       </c>
       <c r="AB4" t="n">
-        <v>381.3039139340614</v>
+        <v>450.4065779544524</v>
       </c>
       <c r="AC4" t="n">
-        <v>344.9128035515981</v>
+        <v>407.4204063040811</v>
       </c>
       <c r="AD4" t="n">
-        <v>278681.2011308083</v>
+        <v>329185.8319693776</v>
       </c>
       <c r="AE4" t="n">
-        <v>381303.9139340614</v>
+        <v>450406.5779544524</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.405386218477018e-06</v>
+        <v>3.521394935739582e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.07291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>344912.8035515981</v>
+        <v>407420.4063040811</v>
       </c>
     </row>
     <row r="5">
@@ -3903,28 +3903,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>251.6963858958701</v>
+        <v>302.2862680804631</v>
       </c>
       <c r="AB5" t="n">
-        <v>344.3820992434285</v>
+        <v>413.6014079166357</v>
       </c>
       <c r="AC5" t="n">
-        <v>311.5147550350503</v>
+        <v>374.127870038293</v>
       </c>
       <c r="AD5" t="n">
-        <v>251696.3858958701</v>
+        <v>302286.2680804631</v>
       </c>
       <c r="AE5" t="n">
-        <v>344382.0992434284</v>
+        <v>413601.4079166357</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.509264306061787e-06</v>
+        <v>3.673468548178804e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.52893518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>311514.7550350503</v>
+        <v>374127.870038293</v>
       </c>
     </row>
     <row r="6">
@@ -4009,28 +4009,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>245.2350873229514</v>
+        <v>295.654377306952</v>
       </c>
       <c r="AB6" t="n">
-        <v>335.5414654835904</v>
+        <v>404.5273623819461</v>
       </c>
       <c r="AC6" t="n">
-        <v>303.5178589533409</v>
+        <v>365.9198386739313</v>
       </c>
       <c r="AD6" t="n">
-        <v>245235.0873229514</v>
+        <v>295654.377306952</v>
       </c>
       <c r="AE6" t="n">
-        <v>335541.4654835904</v>
+        <v>404527.3623819461</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.541970691378749e-06</v>
+        <v>3.721349465902868e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.36689814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>303517.8589533409</v>
+        <v>365919.8386739313</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.3574911855863</v>
+        <v>286.7285123252681</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.9217703290105</v>
+        <v>392.3146001326348</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.5797627749112</v>
+        <v>354.8726453129749</v>
       </c>
       <c r="AD2" t="n">
-        <v>232357.4911855863</v>
+        <v>286728.5123252681</v>
       </c>
       <c r="AE2" t="n">
-        <v>317921.7703290106</v>
+        <v>392314.6001326349</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.540260821924544e-06</v>
+        <v>3.930097043315573e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.81365740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>287579.7627749112</v>
+        <v>354872.6453129749</v>
       </c>
     </row>
     <row r="3">
@@ -4412,28 +4412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>203.7057255592972</v>
+        <v>257.9914058444038</v>
       </c>
       <c r="AB3" t="n">
-        <v>278.7191605724526</v>
+        <v>352.9952232536878</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.1185950722983</v>
+        <v>319.3058545783687</v>
       </c>
       <c r="AD3" t="n">
-        <v>203705.7255592972</v>
+        <v>257991.4058444038</v>
       </c>
       <c r="AE3" t="n">
-        <v>278719.1605724526</v>
+        <v>352995.2232536877</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.73625774897533e-06</v>
+        <v>4.233328481935191e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.82407407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>252118.5950722983</v>
+        <v>319305.8545783687</v>
       </c>
     </row>
   </sheetData>
@@ -4709,28 +4709,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.8537339856014</v>
+        <v>369.8548658789658</v>
       </c>
       <c r="AB2" t="n">
-        <v>418.482572153534</v>
+        <v>506.0517443406995</v>
       </c>
       <c r="AC2" t="n">
-        <v>378.5431828111788</v>
+        <v>457.7548761089064</v>
       </c>
       <c r="AD2" t="n">
-        <v>305853.7339856014</v>
+        <v>369854.8658789658</v>
       </c>
       <c r="AE2" t="n">
-        <v>418482.572153534</v>
+        <v>506051.7443406995</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.20434691538019e-06</v>
+        <v>3.331416197562141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.22569444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>378543.1828111788</v>
+        <v>457754.8761089064</v>
       </c>
     </row>
     <row r="3">
@@ -4815,28 +4815,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.1879264431676</v>
+        <v>281.2528441708109</v>
       </c>
       <c r="AB3" t="n">
-        <v>308.1120555495651</v>
+        <v>384.8225493942766</v>
       </c>
       <c r="AC3" t="n">
-        <v>278.7062734059917</v>
+        <v>348.0956253819263</v>
       </c>
       <c r="AD3" t="n">
-        <v>225187.9264431676</v>
+        <v>281252.8441708109</v>
       </c>
       <c r="AE3" t="n">
-        <v>308112.0555495651</v>
+        <v>384822.5493942766</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.625984519958541e-06</v>
+        <v>3.968634566228653e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.78356481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>278706.2734059917</v>
+        <v>348095.6253819263</v>
       </c>
     </row>
     <row r="4">
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.570774283611</v>
+        <v>266.7849082086527</v>
       </c>
       <c r="AB4" t="n">
-        <v>299.0581760367142</v>
+        <v>365.0268811305649</v>
       </c>
       <c r="AC4" t="n">
-        <v>270.5164834466447</v>
+        <v>330.1892279139083</v>
       </c>
       <c r="AD4" t="n">
-        <v>218570.774283611</v>
+        <v>266784.9082086527</v>
       </c>
       <c r="AE4" t="n">
-        <v>299058.1760367142</v>
+        <v>365026.8811305649</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.677137802934896e-06</v>
+        <v>4.045942214256695e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.53472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>270516.4834466447</v>
+        <v>330189.2279139083</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.251282640167</v>
+        <v>252.9923718995622</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.9926393712353</v>
+        <v>346.1553244685462</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.8431664208094</v>
+        <v>313.1187461334207</v>
       </c>
       <c r="AD2" t="n">
-        <v>200251.282640167</v>
+        <v>252992.3718995622</v>
       </c>
       <c r="AE2" t="n">
-        <v>273992.6393712353</v>
+        <v>346155.3244685462</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.749089444620672e-06</v>
+        <v>4.344902851600391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.25231481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>247843.1664208094</v>
+        <v>313118.7461334207</v>
       </c>
     </row>
     <row r="3">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.2066572071973</v>
+        <v>253.9477464665925</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.2998250019966</v>
+        <v>347.4625100993076</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.0255960896179</v>
+        <v>314.3011758022292</v>
       </c>
       <c r="AD3" t="n">
-        <v>201206.6572071973</v>
+        <v>253947.7464665924</v>
       </c>
       <c r="AE3" t="n">
-        <v>275299.8250019967</v>
+        <v>347462.5100993076</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.749341296523436e-06</v>
+        <v>4.345300900508055e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.25231481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>249025.5960896179</v>
+        <v>314301.1758022292</v>
       </c>
     </row>
   </sheetData>
@@ -5621,28 +5621,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>502.3792033032109</v>
+        <v>586.9504376270219</v>
       </c>
       <c r="AB2" t="n">
-        <v>687.3773893656892</v>
+        <v>803.0914831870635</v>
       </c>
       <c r="AC2" t="n">
-        <v>621.775056064852</v>
+        <v>726.4455591776652</v>
       </c>
       <c r="AD2" t="n">
-        <v>502379.2033032109</v>
+        <v>586950.4376270219</v>
       </c>
       <c r="AE2" t="n">
-        <v>687377.3893656891</v>
+        <v>803091.4831870636</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.625259679674206e-06</v>
+        <v>2.369443802912816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.17245370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>621775.056064852</v>
+        <v>726445.5591776653</v>
       </c>
     </row>
     <row r="3">
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>330.6485483504366</v>
+        <v>389.8825755714983</v>
       </c>
       <c r="AB3" t="n">
-        <v>452.4079310375097</v>
+        <v>533.4545403022154</v>
       </c>
       <c r="AC3" t="n">
-        <v>409.2307530578082</v>
+        <v>482.542387683921</v>
       </c>
       <c r="AD3" t="n">
-        <v>330648.5483504366</v>
+        <v>389882.5755714983</v>
       </c>
       <c r="AE3" t="n">
-        <v>452407.9310375097</v>
+        <v>533454.5403022154</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.155813873125131e-06</v>
+        <v>3.142931487067818e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.45601851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>409230.7530578082</v>
+        <v>482542.387683921</v>
       </c>
     </row>
     <row r="4">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>289.5300704977028</v>
+        <v>348.6787568641929</v>
       </c>
       <c r="AB4" t="n">
-        <v>396.1478156201837</v>
+        <v>477.0776577626916</v>
       </c>
       <c r="AC4" t="n">
-        <v>358.3400240943438</v>
+        <v>431.5460356885176</v>
       </c>
       <c r="AD4" t="n">
-        <v>289530.0704977028</v>
+        <v>348678.7568641929</v>
       </c>
       <c r="AE4" t="n">
-        <v>396147.8156201837</v>
+        <v>477077.6577626916</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.351366220457561e-06</v>
+        <v>3.428024573007637e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.25231481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>358340.0240943438</v>
+        <v>431546.0356885176</v>
       </c>
     </row>
     <row r="5">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>262.0133606938039</v>
+        <v>321.2472984063146</v>
       </c>
       <c r="AB5" t="n">
-        <v>358.498239314929</v>
+        <v>439.5447261100863</v>
       </c>
       <c r="AC5" t="n">
-        <v>324.2836705101505</v>
+        <v>397.5951943550366</v>
       </c>
       <c r="AD5" t="n">
-        <v>262013.3606938039</v>
+        <v>321247.2984063146</v>
       </c>
       <c r="AE5" t="n">
-        <v>358498.2393149291</v>
+        <v>439544.7261100864</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.460772159273502e-06</v>
+        <v>3.587525991132556e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.66203703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>324283.6705101505</v>
+        <v>397595.1943550366</v>
       </c>
     </row>
     <row r="6">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>246.4637667957399</v>
+        <v>297.2236113643644</v>
       </c>
       <c r="AB6" t="n">
-        <v>337.2225989437716</v>
+        <v>406.6744576490183</v>
       </c>
       <c r="AC6" t="n">
-        <v>305.0385473955686</v>
+        <v>367.8620181821814</v>
       </c>
       <c r="AD6" t="n">
-        <v>246463.7667957399</v>
+        <v>297223.6113643644</v>
       </c>
       <c r="AE6" t="n">
-        <v>337222.5989437716</v>
+        <v>406674.4576490183</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.538734658980924e-06</v>
+        <v>3.701186450505039e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.27430555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>305038.5473955686</v>
+        <v>367862.0181821814</v>
       </c>
     </row>
     <row r="7">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>246.9702119121241</v>
+        <v>297.7300564807486</v>
       </c>
       <c r="AB7" t="n">
-        <v>337.9155394947898</v>
+        <v>407.3673982000369</v>
       </c>
       <c r="AC7" t="n">
-        <v>305.665354672946</v>
+        <v>368.4888254595589</v>
       </c>
       <c r="AD7" t="n">
-        <v>246970.2119121241</v>
+        <v>297730.0564807486</v>
       </c>
       <c r="AE7" t="n">
-        <v>337915.5394947897</v>
+        <v>407367.3982000368</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.542072832310938e-06</v>
+        <v>3.706053127632866e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.25694444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>305665.354672946</v>
+        <v>368488.8254595589</v>
       </c>
     </row>
   </sheetData>
@@ -6448,28 +6448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.5436668350881</v>
+        <v>246.591200702394</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.1832276244921</v>
+        <v>337.3969596368427</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.7790739705948</v>
+        <v>305.1962673488098</v>
       </c>
       <c r="AD2" t="n">
-        <v>194543.6668350881</v>
+        <v>246591.200702394</v>
       </c>
       <c r="AE2" t="n">
-        <v>266183.2276244921</v>
+        <v>337396.9596368427</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.730311198220637e-06</v>
+        <v>4.374599883310063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.65740740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>240779.0739705948</v>
+        <v>305196.2673488099</v>
       </c>
     </row>
   </sheetData>
@@ -6745,28 +6745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>377.6150699519808</v>
+        <v>451.6286444951653</v>
       </c>
       <c r="AB2" t="n">
-        <v>516.66959790944</v>
+        <v>617.9382358478841</v>
       </c>
       <c r="AC2" t="n">
-        <v>467.3593766352973</v>
+        <v>558.9630779003223</v>
       </c>
       <c r="AD2" t="n">
-        <v>377615.0699519808</v>
+        <v>451628.6444951653</v>
       </c>
       <c r="AE2" t="n">
-        <v>516669.5979094399</v>
+        <v>617938.2358478841</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.927598670000324e-06</v>
+        <v>2.8621817719458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.80555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>467359.3766352973</v>
+        <v>558963.0779003224</v>
       </c>
     </row>
     <row r="3">
@@ -6851,28 +6851,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.3133796397649</v>
+        <v>328.7752771929831</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.2229355246722</v>
+        <v>449.844838796991</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.793939572859</v>
+        <v>406.9122787434021</v>
       </c>
       <c r="AD3" t="n">
-        <v>271313.379639765</v>
+        <v>328775.2771929831</v>
       </c>
       <c r="AE3" t="n">
-        <v>371222.9355246722</v>
+        <v>449844.838796991</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.406363666646647e-06</v>
+        <v>3.573072720239808e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.46064814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>335793.939572859</v>
+        <v>406912.278743402</v>
       </c>
     </row>
     <row r="4">
@@ -6957,28 +6957,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>237.0181522736466</v>
+        <v>294.5653011728883</v>
       </c>
       <c r="AB4" t="n">
-        <v>324.2986924435472</v>
+        <v>403.0372403686719</v>
       </c>
       <c r="AC4" t="n">
-        <v>293.3480803929049</v>
+        <v>364.5719318142047</v>
       </c>
       <c r="AD4" t="n">
-        <v>237018.1522736466</v>
+        <v>294565.3011728883</v>
       </c>
       <c r="AE4" t="n">
-        <v>324298.6924435472</v>
+        <v>403037.2403686719</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.580225946499737e-06</v>
+        <v>3.831230943717089e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.55208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>293348.0803929049</v>
+        <v>364571.9318142047</v>
       </c>
     </row>
     <row r="5">
@@ -7063,28 +7063,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>232.3077644392072</v>
+        <v>281.6217900250269</v>
       </c>
       <c r="AB5" t="n">
-        <v>317.8537320008255</v>
+        <v>385.3273573887574</v>
       </c>
       <c r="AC5" t="n">
-        <v>287.5182179292757</v>
+        <v>348.5522552099163</v>
       </c>
       <c r="AD5" t="n">
-        <v>232307.7644392072</v>
+        <v>281621.7900250269</v>
       </c>
       <c r="AE5" t="n">
-        <v>317853.7320008255</v>
+        <v>385327.3573887574</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.608270055387825e-06</v>
+        <v>3.872872048019124e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.41898148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>287518.2179292757</v>
+        <v>348552.2552099163</v>
       </c>
     </row>
   </sheetData>
@@ -7360,28 +7360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>432.4141628879503</v>
+        <v>515.828542395274</v>
       </c>
       <c r="AB2" t="n">
-        <v>591.6481344297905</v>
+        <v>705.7793684544145</v>
       </c>
       <c r="AC2" t="n">
-        <v>535.1820668631825</v>
+        <v>638.4207760966895</v>
       </c>
       <c r="AD2" t="n">
-        <v>432414.1628879503</v>
+        <v>515828.542395274</v>
       </c>
       <c r="AE2" t="n">
-        <v>591648.1344297905</v>
+        <v>705779.3684544144</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.770909185440439e-06</v>
+        <v>2.604020092974474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.9224537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>535182.0668631825</v>
+        <v>638420.7760966894</v>
       </c>
     </row>
     <row r="3">
@@ -7466,28 +7466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>296.6604053222551</v>
+        <v>363.3577725862855</v>
       </c>
       <c r="AB3" t="n">
-        <v>405.9038542953076</v>
+        <v>497.1621346661277</v>
       </c>
       <c r="AC3" t="n">
-        <v>367.1649601310001</v>
+        <v>449.7136783050301</v>
       </c>
       <c r="AD3" t="n">
-        <v>296660.4053222552</v>
+        <v>363357.7725862855</v>
       </c>
       <c r="AE3" t="n">
-        <v>405903.8542953075</v>
+        <v>497162.1346661277</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.273349615550379e-06</v>
+        <v>3.342829844646534e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.96412037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>367164.9601310001</v>
+        <v>449713.6783050301</v>
       </c>
     </row>
     <row r="4">
@@ -7572,28 +7572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>259.0494746706028</v>
+        <v>317.4736766675581</v>
       </c>
       <c r="AB4" t="n">
-        <v>354.4429197005624</v>
+        <v>434.3814903666782</v>
       </c>
       <c r="AC4" t="n">
-        <v>320.615384908102</v>
+        <v>392.9247305843325</v>
       </c>
       <c r="AD4" t="n">
-        <v>259049.4746706028</v>
+        <v>317473.6766675581</v>
       </c>
       <c r="AE4" t="n">
-        <v>354442.9197005624</v>
+        <v>434381.4903666782</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.463115349441919e-06</v>
+        <v>3.62186944084622e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.88773148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>320615.384908102</v>
+        <v>392924.7305843324</v>
       </c>
     </row>
     <row r="5">
@@ -7678,28 +7678,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>241.8986046116453</v>
+        <v>291.964389995508</v>
       </c>
       <c r="AB5" t="n">
-        <v>330.976342642755</v>
+        <v>399.4785589516774</v>
       </c>
       <c r="AC5" t="n">
-        <v>299.3884250292434</v>
+        <v>361.3528859570073</v>
       </c>
       <c r="AD5" t="n">
-        <v>241898.6046116453</v>
+        <v>291964.389995508</v>
       </c>
       <c r="AE5" t="n">
-        <v>330976.342642755</v>
+        <v>399478.5589516773</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.55701099580675e-06</v>
+        <v>3.759937587867569e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.41319444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>299388.4250292433</v>
+        <v>361352.8859570073</v>
       </c>
     </row>
     <row r="6">
@@ -7784,28 +7784,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>241.4321382270565</v>
+        <v>291.4979236109191</v>
       </c>
       <c r="AB6" t="n">
-        <v>330.3381027563164</v>
+        <v>398.8403190652384</v>
       </c>
       <c r="AC6" t="n">
-        <v>298.8110978617909</v>
+        <v>360.7755587895547</v>
       </c>
       <c r="AD6" t="n">
-        <v>241432.1382270565</v>
+        <v>291497.9236109192</v>
       </c>
       <c r="AE6" t="n">
-        <v>330338.1027563164</v>
+        <v>398840.3190652384</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.559753275198246e-06</v>
+        <v>3.763969951974501e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.40162037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>298811.0978617909</v>
+        <v>360775.5587895548</v>
       </c>
     </row>
   </sheetData>
@@ -8081,28 +8081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>570.0661838564163</v>
+        <v>664.3827902934655</v>
       </c>
       <c r="AB2" t="n">
-        <v>779.9897022974153</v>
+        <v>909.0378441795967</v>
       </c>
       <c r="AC2" t="n">
-        <v>705.548579832572</v>
+        <v>822.2805481737225</v>
       </c>
       <c r="AD2" t="n">
-        <v>570066.1838564163</v>
+        <v>664382.7902934655</v>
       </c>
       <c r="AE2" t="n">
-        <v>779989.7022974154</v>
+        <v>909037.8441795968</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.493916789268649e-06</v>
+        <v>2.161357737959793e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.50925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>705548.579832572</v>
+        <v>822280.5481737226</v>
       </c>
     </row>
     <row r="3">
@@ -8187,28 +8187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.1946618826221</v>
+        <v>425.765282694684</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.7294947041207</v>
+        <v>582.5508432214714</v>
       </c>
       <c r="AC3" t="n">
-        <v>442.0858376657126</v>
+        <v>526.953008359657</v>
       </c>
       <c r="AD3" t="n">
-        <v>357194.6618826222</v>
+        <v>425765.282694684</v>
       </c>
       <c r="AE3" t="n">
-        <v>488729.4947041207</v>
+        <v>582550.8432214714</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.044686111577332e-06</v>
+        <v>2.958195650990754e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.98263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>442085.8376657126</v>
+        <v>526953.008359657</v>
       </c>
     </row>
     <row r="4">
@@ -8293,28 +8293,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>310.5109309740866</v>
+        <v>370.5848974323909</v>
       </c>
       <c r="AB4" t="n">
-        <v>424.85475453421</v>
+        <v>507.0506057188148</v>
       </c>
       <c r="AC4" t="n">
-        <v>384.3072130488572</v>
+        <v>458.6584075590051</v>
       </c>
       <c r="AD4" t="n">
-        <v>310510.9309740866</v>
+        <v>370584.8974323909</v>
       </c>
       <c r="AE4" t="n">
-        <v>424854.75453421</v>
+        <v>507050.6057188148</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.254056802631815e-06</v>
+        <v>3.261107410509924e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.59375</v>
       </c>
       <c r="AH4" t="n">
-        <v>384307.2130488572</v>
+        <v>458658.4075590051</v>
       </c>
     </row>
     <row r="5">
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>281.8312613492712</v>
+        <v>341.8198869530039</v>
       </c>
       <c r="AB5" t="n">
-        <v>385.6139652958111</v>
+        <v>467.6930493582182</v>
       </c>
       <c r="AC5" t="n">
-        <v>348.8115096605775</v>
+        <v>423.0570811387865</v>
       </c>
       <c r="AD5" t="n">
-        <v>281831.2613492712</v>
+        <v>341819.8869530039</v>
       </c>
       <c r="AE5" t="n">
-        <v>385613.9652958111</v>
+        <v>467693.0493582182</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.367556363092197e-06</v>
+        <v>3.425315454102617e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.93981481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>348811.5096605775</v>
+        <v>423057.0811387865</v>
       </c>
     </row>
     <row r="6">
@@ -8505,28 +8505,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>267.0419794523588</v>
+        <v>327.0306050560914</v>
       </c>
       <c r="AB6" t="n">
-        <v>365.3786173473862</v>
+        <v>447.4577014097934</v>
       </c>
       <c r="AC6" t="n">
-        <v>330.5073949198612</v>
+        <v>404.7529663980702</v>
       </c>
       <c r="AD6" t="n">
-        <v>267041.9794523588</v>
+        <v>327030.6050560914</v>
       </c>
       <c r="AE6" t="n">
-        <v>365378.6173473863</v>
+        <v>447457.7014097934</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.442411017239109e-06</v>
+        <v>3.53361310971832e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.54050925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>330507.3949198612</v>
+        <v>404752.9663980702</v>
       </c>
     </row>
     <row r="7">
@@ -8611,28 +8611,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>258.6297455086104</v>
+        <v>310.0364654125648</v>
       </c>
       <c r="AB7" t="n">
-        <v>353.8686277439805</v>
+        <v>424.2055698209925</v>
       </c>
       <c r="AC7" t="n">
-        <v>320.0959025698326</v>
+        <v>383.7199856135327</v>
       </c>
       <c r="AD7" t="n">
-        <v>258629.7455086104</v>
+        <v>310036.4654125648</v>
       </c>
       <c r="AE7" t="n">
-        <v>353868.6277439805</v>
+        <v>424205.5698209925</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.473803386340325e-06</v>
+        <v>3.579030726253053e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.38425925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>320095.9025698326</v>
+        <v>383719.9856135327</v>
       </c>
     </row>
     <row r="8">
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>259.6090824050451</v>
+        <v>311.0158023089995</v>
       </c>
       <c r="AB8" t="n">
-        <v>355.208599690977</v>
+        <v>425.545541767989</v>
       </c>
       <c r="AC8" t="n">
-        <v>321.3079894748702</v>
+        <v>384.9320725185704</v>
       </c>
       <c r="AD8" t="n">
-        <v>259609.082405045</v>
+        <v>311015.8023089995</v>
       </c>
       <c r="AE8" t="n">
-        <v>355208.599690977</v>
+        <v>425545.541767989</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.471738795455085e-06</v>
+        <v>3.576043732922776e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.39583333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>321307.9894748702</v>
+        <v>384932.0725185703</v>
       </c>
     </row>
   </sheetData>
@@ -9014,28 +9014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>327.0276075932994</v>
+        <v>391.7940814588909</v>
       </c>
       <c r="AB2" t="n">
-        <v>447.4536001489627</v>
+        <v>536.0699469870341</v>
       </c>
       <c r="AC2" t="n">
-        <v>404.7492565558171</v>
+        <v>484.9081836254867</v>
       </c>
       <c r="AD2" t="n">
-        <v>327027.6075932994</v>
+        <v>391794.0814588909</v>
       </c>
       <c r="AE2" t="n">
-        <v>447453.6001489627</v>
+        <v>536069.9469870341</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.101733532416801e-06</v>
+        <v>3.156140908431346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.76967592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>404749.256555817</v>
+        <v>484908.1836254867</v>
       </c>
     </row>
     <row r="3">
@@ -9120,28 +9120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>246.2436473797887</v>
+        <v>294.8185922875365</v>
       </c>
       <c r="AB3" t="n">
-        <v>336.9214218478841</v>
+        <v>403.383804446149</v>
       </c>
       <c r="AC3" t="n">
-        <v>304.7661142190078</v>
+        <v>364.885420302533</v>
       </c>
       <c r="AD3" t="n">
-        <v>246243.6473797887</v>
+        <v>294818.5922875365</v>
       </c>
       <c r="AE3" t="n">
-        <v>336921.4218478841</v>
+        <v>403383.804446149</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.549077818800464e-06</v>
+        <v>3.827910940470074e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.00347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>304766.1142190078</v>
+        <v>364885.420302533</v>
       </c>
     </row>
     <row r="4">
@@ -9226,28 +9226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.9564016799905</v>
+        <v>271.4460057331663</v>
       </c>
       <c r="AB4" t="n">
-        <v>305.0587849206632</v>
+        <v>371.4044003967141</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.944402640619</v>
+        <v>335.9580856922008</v>
       </c>
       <c r="AD4" t="n">
-        <v>222956.4016799905</v>
+        <v>271446.0057331662</v>
       </c>
       <c r="AE4" t="n">
-        <v>305058.7849206632</v>
+        <v>371404.4003967141</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.655201101692402e-06</v>
+        <v>3.987274641579762e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.48263888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>275944.402640619</v>
+        <v>335958.0856922008</v>
       </c>
     </row>
   </sheetData>
@@ -9523,28 +9523,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.0740834814278</v>
+        <v>313.9961760799703</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.4765905611973</v>
+        <v>429.6234206462422</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.6458422690553</v>
+        <v>388.6207643600221</v>
       </c>
       <c r="AD2" t="n">
-        <v>259074.0834814278</v>
+        <v>313996.1760799703</v>
       </c>
       <c r="AE2" t="n">
-        <v>354476.5905611973</v>
+        <v>429623.4206462422</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.420363003922354e-06</v>
+        <v>3.712223888379521e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.2650462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>320645.8422690553</v>
+        <v>388620.7643600221</v>
       </c>
     </row>
     <row r="3">
@@ -9629,28 +9629,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.0327028396353</v>
+        <v>262.9547059296293</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.6395217801734</v>
+        <v>359.7862293958062</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.4739253156351</v>
+        <v>325.4487366254141</v>
       </c>
       <c r="AD3" t="n">
-        <v>208032.7028396353</v>
+        <v>262954.7059296293</v>
       </c>
       <c r="AE3" t="n">
-        <v>284639.5217801734</v>
+        <v>359786.2293958061</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.725272306454881e-06</v>
+        <v>4.17987753984258e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.66782407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>257473.9253156352</v>
+        <v>325448.7366254141</v>
       </c>
     </row>
   </sheetData>
@@ -16971,28 +16971,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.8024383714184</v>
+        <v>265.3096668014686</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.7974402437505</v>
+        <v>363.0083907541979</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.1395792802342</v>
+        <v>328.3633794260928</v>
       </c>
       <c r="AD2" t="n">
-        <v>211802.4383714184</v>
+        <v>265309.6668014686</v>
       </c>
       <c r="AE2" t="n">
-        <v>289797.4402437505</v>
+        <v>363008.390754198</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.687349971181886e-06</v>
+        <v>4.198931321011153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.28703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>262139.5792802342</v>
+        <v>328363.3794260928</v>
       </c>
     </row>
     <row r="3">
@@ -17077,28 +17077,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.7940479467817</v>
+        <v>252.3865277228493</v>
       </c>
       <c r="AB3" t="n">
-        <v>271.9987865750891</v>
+        <v>345.3263817380093</v>
       </c>
       <c r="AC3" t="n">
-        <v>246.0396041371369</v>
+        <v>312.3689165336575</v>
       </c>
       <c r="AD3" t="n">
-        <v>198794.0479467817</v>
+        <v>252386.5277228492</v>
       </c>
       <c r="AE3" t="n">
-        <v>271998.7865750891</v>
+        <v>345326.3817380093</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.747766900906478e-06</v>
+        <v>4.293331581959804e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.99768518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>246039.6041371369</v>
+        <v>312368.9165336575</v>
       </c>
     </row>
   </sheetData>
@@ -17374,28 +17374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.161118826102</v>
+        <v>247.1181605942336</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.396296795542</v>
+        <v>338.1179694086869</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.7809309260224</v>
+        <v>305.8484649599731</v>
       </c>
       <c r="AD2" t="n">
-        <v>196161.1188261019</v>
+        <v>247118.1605942335</v>
       </c>
       <c r="AE2" t="n">
-        <v>268396.2967955419</v>
+        <v>338117.9694086869</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.662916784305073e-06</v>
+        <v>4.339691927801727e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.39236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>242780.9309260224</v>
+        <v>305848.4649599731</v>
       </c>
     </row>
   </sheetData>
@@ -17671,28 +17671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>409.1958107948571</v>
+        <v>483.6999793472556</v>
       </c>
       <c r="AB2" t="n">
-        <v>559.8797607746192</v>
+        <v>661.8196510799502</v>
       </c>
       <c r="AC2" t="n">
-        <v>506.4456222024681</v>
+        <v>598.6565124505929</v>
       </c>
       <c r="AD2" t="n">
-        <v>409195.8107948571</v>
+        <v>483699.9793472557</v>
       </c>
       <c r="AE2" t="n">
-        <v>559879.7607746192</v>
+        <v>661819.6510799502</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.84497813347637e-06</v>
+        <v>2.725735279615599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.37268518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>506445.6222024681</v>
+        <v>598656.5124505929</v>
       </c>
     </row>
     <row r="3">
@@ -17777,28 +17777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>284.4597569492307</v>
+        <v>342.540126423779</v>
       </c>
       <c r="AB3" t="n">
-        <v>389.2103889367173</v>
+        <v>468.6785127768557</v>
       </c>
       <c r="AC3" t="n">
-        <v>352.0646956768079</v>
+        <v>423.9484933118558</v>
       </c>
       <c r="AD3" t="n">
-        <v>284459.7569492307</v>
+        <v>342540.1264237791</v>
       </c>
       <c r="AE3" t="n">
-        <v>389210.3889367173</v>
+        <v>468678.5127768557</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.334819357072957e-06</v>
+        <v>3.449417300741511e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.72685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>352064.6956768079</v>
+        <v>423948.4933118558</v>
       </c>
     </row>
     <row r="4">
@@ -17883,28 +17883,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>248.1505094320892</v>
+        <v>306.145538052069</v>
       </c>
       <c r="AB4" t="n">
-        <v>339.5304746326566</v>
+        <v>418.8818313507618</v>
       </c>
       <c r="AC4" t="n">
-        <v>307.1261626678311</v>
+        <v>378.904337270987</v>
       </c>
       <c r="AD4" t="n">
-        <v>248150.5094320892</v>
+        <v>306145.538052069</v>
       </c>
       <c r="AE4" t="n">
-        <v>339530.4746326566</v>
+        <v>418881.8313507618</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.520884795279555e-06</v>
+        <v>3.724306807578777e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.71412037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>307126.1626678311</v>
+        <v>378904.337270987</v>
       </c>
     </row>
     <row r="5">
@@ -17989,28 +17989,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>236.4791745411073</v>
+        <v>286.1770970304168</v>
       </c>
       <c r="AB5" t="n">
-        <v>323.5612393318679</v>
+        <v>391.5601293994935</v>
       </c>
       <c r="AC5" t="n">
-        <v>292.6810087711821</v>
+        <v>354.1901802076981</v>
       </c>
       <c r="AD5" t="n">
-        <v>236479.1745411073</v>
+        <v>286177.0970304168</v>
       </c>
       <c r="AE5" t="n">
-        <v>323561.2393318679</v>
+        <v>391560.1293994935</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.583589789637955e-06</v>
+        <v>3.816945962606994e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.40740740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>292681.0087711821</v>
+        <v>354190.1802076981</v>
       </c>
     </row>
     <row r="6">
@@ -18095,28 +18095,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>237.1434358188245</v>
+        <v>286.841358308134</v>
       </c>
       <c r="AB6" t="n">
-        <v>324.4701109171794</v>
+        <v>392.4690009848054</v>
       </c>
       <c r="AC6" t="n">
-        <v>293.503138928001</v>
+        <v>355.0123103645172</v>
       </c>
       <c r="AD6" t="n">
-        <v>237143.4358188245</v>
+        <v>286841.358308134</v>
       </c>
       <c r="AE6" t="n">
-        <v>324470.1109171794</v>
+        <v>392469.0009848054</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.583368217219728e-06</v>
+        <v>3.816618615769439e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.40740740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>293503.138928001</v>
+        <v>355012.3103645172</v>
       </c>
     </row>
   </sheetData>
@@ -18392,28 +18392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>531.1004727657935</v>
+        <v>624.7486023044232</v>
       </c>
       <c r="AB2" t="n">
-        <v>726.6750973373762</v>
+        <v>854.8085996360206</v>
       </c>
       <c r="AC2" t="n">
-        <v>657.3222459424007</v>
+        <v>773.2268666181627</v>
       </c>
       <c r="AD2" t="n">
-        <v>531100.4727657934</v>
+        <v>624748.6023044232</v>
       </c>
       <c r="AE2" t="n">
-        <v>726675.0973373762</v>
+        <v>854808.5996360206</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.55790660116335e-06</v>
+        <v>2.262343695453015e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.82638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>657322.2459424008</v>
+        <v>773226.8666181627</v>
       </c>
     </row>
     <row r="3">
@@ -18498,28 +18498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>343.8151770460501</v>
+        <v>411.9616989171315</v>
       </c>
       <c r="AB3" t="n">
-        <v>470.4230932895103</v>
+        <v>563.664170925887</v>
       </c>
       <c r="AC3" t="n">
-        <v>425.5265735089168</v>
+        <v>509.8688535603521</v>
       </c>
       <c r="AD3" t="n">
-        <v>343815.17704605</v>
+        <v>411961.6989171315</v>
       </c>
       <c r="AE3" t="n">
-        <v>470423.0932895103</v>
+        <v>563664.170925887</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.09927193896225e-06</v>
+        <v>3.048497665140004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.71643518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>425526.5735089168</v>
+        <v>509868.8535603521</v>
       </c>
     </row>
     <row r="4">
@@ -18604,28 +18604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>300.3931663909357</v>
+        <v>359.92545407529</v>
       </c>
       <c r="AB4" t="n">
-        <v>411.0111826672722</v>
+        <v>492.4658850561779</v>
       </c>
       <c r="AC4" t="n">
-        <v>371.7848522513249</v>
+        <v>445.4656321666261</v>
       </c>
       <c r="AD4" t="n">
-        <v>300393.1663909357</v>
+        <v>359925.45407529</v>
       </c>
       <c r="AE4" t="n">
-        <v>411011.1826672722</v>
+        <v>492465.8850561779</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.298907746827354e-06</v>
+        <v>3.338402599731735e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>371784.8522513249</v>
+        <v>445465.6321666261</v>
       </c>
     </row>
     <row r="5">
@@ -18710,28 +18710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>272.0811454181683</v>
+        <v>331.6986844485432</v>
       </c>
       <c r="AB5" t="n">
-        <v>372.2734265341193</v>
+        <v>453.8447735756741</v>
       </c>
       <c r="AC5" t="n">
-        <v>336.7441731947378</v>
+        <v>410.5304653607514</v>
       </c>
       <c r="AD5" t="n">
-        <v>272081.1454181683</v>
+        <v>331698.6844485432</v>
       </c>
       <c r="AE5" t="n">
-        <v>372273.4265341193</v>
+        <v>453844.7735756742</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.412817590138619e-06</v>
+        <v>3.503818944763487e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.80092592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>336744.1731947378</v>
+        <v>410530.4653607514</v>
       </c>
     </row>
     <row r="6">
@@ -18816,28 +18816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>255.544995787483</v>
+        <v>306.6336414857055</v>
       </c>
       <c r="AB6" t="n">
-        <v>349.6479370858159</v>
+        <v>419.549676002267</v>
       </c>
       <c r="AC6" t="n">
-        <v>316.2780287044118</v>
+        <v>379.5084437662784</v>
       </c>
       <c r="AD6" t="n">
-        <v>255544.995787483</v>
+        <v>306633.6414857055</v>
       </c>
       <c r="AE6" t="n">
-        <v>349647.9370858159</v>
+        <v>419549.676002267</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.498917204600227e-06</v>
+        <v>3.628850137142221e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.36111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>316278.0287044118</v>
+        <v>379508.4437662784</v>
       </c>
     </row>
     <row r="7">
@@ -18922,28 +18922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>253.9079524014612</v>
+        <v>304.9965980996836</v>
       </c>
       <c r="AB7" t="n">
-        <v>347.4080621038048</v>
+        <v>417.3098010202547</v>
       </c>
       <c r="AC7" t="n">
-        <v>314.2519242469988</v>
+        <v>377.4823393088651</v>
       </c>
       <c r="AD7" t="n">
-        <v>253907.9524014612</v>
+        <v>304996.5980996836</v>
       </c>
       <c r="AE7" t="n">
-        <v>347408.0621038048</v>
+        <v>417309.8010202547</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.497903011993426e-06</v>
+        <v>3.627377358062744e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.36689814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>314251.9242469989</v>
+        <v>377482.3393088651</v>
       </c>
     </row>
   </sheetData>
@@ -19219,28 +19219,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.7958159633266</v>
+        <v>261.6358763793974</v>
       </c>
       <c r="AB2" t="n">
-        <v>280.2106703546394</v>
+        <v>357.9817486225255</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.4677572542208</v>
+        <v>323.8164729645306</v>
       </c>
       <c r="AD2" t="n">
-        <v>204795.8159633266</v>
+        <v>261635.8763793974</v>
       </c>
       <c r="AE2" t="n">
-        <v>280210.6703546394</v>
+        <v>357981.7486225255</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.471511535400883e-06</v>
+        <v>4.119862479224199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.05902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>253467.7572542208</v>
+        <v>323816.4729645306</v>
       </c>
     </row>
   </sheetData>
@@ -19516,28 +19516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.4049056372162</v>
+        <v>341.8598925891716</v>
       </c>
       <c r="AB2" t="n">
-        <v>380.9258742504317</v>
+        <v>467.7477868345471</v>
       </c>
       <c r="AC2" t="n">
-        <v>344.5708434447921</v>
+        <v>423.1065945471991</v>
       </c>
       <c r="AD2" t="n">
-        <v>278404.9056372162</v>
+        <v>341859.8925891716</v>
       </c>
       <c r="AE2" t="n">
-        <v>380925.8742504317</v>
+        <v>467747.7868345471</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.306602361343357e-06</v>
+        <v>3.510433407407694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.75115740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>344570.8434447921</v>
+        <v>423106.5945471991</v>
       </c>
     </row>
     <row r="3">
@@ -19622,28 +19622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.8502035114491</v>
+        <v>269.3626494875911</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.599282849361</v>
+        <v>368.5538604703274</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.674017959977</v>
+        <v>333.3795972956305</v>
       </c>
       <c r="AD3" t="n">
-        <v>213850.203511449</v>
+        <v>269362.6494875911</v>
       </c>
       <c r="AE3" t="n">
-        <v>292599.282849361</v>
+        <v>368553.8604703274</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.694249827208841e-06</v>
+        <v>4.100396652602064e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.62731481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>264674.017959977</v>
+        <v>333379.5972956305</v>
       </c>
     </row>
     <row r="4">
@@ -19728,28 +19728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.0558877448788</v>
+        <v>269.5683337210208</v>
       </c>
       <c r="AB4" t="n">
-        <v>292.8807090916873</v>
+        <v>368.835286712654</v>
       </c>
       <c r="AC4" t="n">
-        <v>264.92858527672</v>
+        <v>333.6341646123736</v>
       </c>
       <c r="AD4" t="n">
-        <v>214055.8877448788</v>
+        <v>269568.3337210208</v>
       </c>
       <c r="AE4" t="n">
-        <v>292880.7090916873</v>
+        <v>368835.2867126539</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.6964837677158e-06</v>
+        <v>4.103796501452138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.61574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>264928.58527672</v>
+        <v>333634.1646123736</v>
       </c>
     </row>
   </sheetData>
@@ -20025,28 +20025,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.3647777026777</v>
+        <v>420.6092955809066</v>
       </c>
       <c r="AB2" t="n">
-        <v>486.2257664403282</v>
+        <v>575.4961941863036</v>
       </c>
       <c r="AC2" t="n">
-        <v>439.8210617134117</v>
+        <v>520.5716451271435</v>
       </c>
       <c r="AD2" t="n">
-        <v>355364.7777026776</v>
+        <v>420609.2955809066</v>
       </c>
       <c r="AE2" t="n">
-        <v>486225.7664403283</v>
+        <v>575496.1941863035</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.015248505304391e-06</v>
+        <v>3.008586044679472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.25578703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>439821.0617134117</v>
+        <v>520571.6451271435</v>
       </c>
     </row>
     <row r="3">
@@ -20131,28 +20131,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.2220123054209</v>
+        <v>316.214968176047</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.6789933043437</v>
+        <v>432.6592698782933</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.8289279784699</v>
+        <v>391.3668764022073</v>
       </c>
       <c r="AD3" t="n">
-        <v>259222.0123054209</v>
+        <v>316214.968176047</v>
       </c>
       <c r="AE3" t="n">
-        <v>354678.9933043437</v>
+        <v>432659.2698782933</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.473256956502906e-06</v>
+        <v>3.692351759425892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.24074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>320828.9279784699</v>
+        <v>391366.8764022073</v>
       </c>
     </row>
     <row r="4">
@@ -20237,28 +20237,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>228.1648466537222</v>
+        <v>277.0769222258916</v>
       </c>
       <c r="AB4" t="n">
-        <v>312.1852091140945</v>
+        <v>379.108868760564</v>
       </c>
       <c r="AC4" t="n">
-        <v>282.3906909110306</v>
+        <v>342.9272504086941</v>
       </c>
       <c r="AD4" t="n">
-        <v>228164.8466537222</v>
+        <v>277076.9222258916</v>
       </c>
       <c r="AE4" t="n">
-        <v>312185.2091140945</v>
+        <v>379108.868760564</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.625171771507455e-06</v>
+        <v>3.919147011326458e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.47685185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>282390.6909110306</v>
+        <v>342927.2504086941</v>
       </c>
     </row>
     <row r="5">
@@ -20343,28 +20343,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>228.0249099774153</v>
+        <v>276.9369855495846</v>
       </c>
       <c r="AB5" t="n">
-        <v>311.9937415800011</v>
+        <v>378.9174012264704</v>
       </c>
       <c r="AC5" t="n">
-        <v>282.2174967696646</v>
+        <v>342.754056267328</v>
       </c>
       <c r="AD5" t="n">
-        <v>228024.9099774153</v>
+        <v>276936.9855495846</v>
       </c>
       <c r="AE5" t="n">
-        <v>311993.7415800011</v>
+        <v>378917.4012264704</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.630209185268784e-06</v>
+        <v>3.926667420200956e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.4537037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>282217.4967696646</v>
+        <v>342754.056267328</v>
       </c>
     </row>
   </sheetData>
